--- a/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados.xlsx
+++ b/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t xml:space="preserve">Semana 0</t>
   </si>
@@ -43,6 +43,12 @@
     <t xml:space="preserve">Semana 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Fecha Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha Fin</t>
+  </si>
+  <si>
     <t xml:space="preserve">lunes</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t xml:space="preserve">Análisis</t>
   </si>
   <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
     <t xml:space="preserve">Planeación</t>
   </si>
   <si>
@@ -79,13 +88,13 @@
     <t xml:space="preserve">Ajuste de SP de INSERT y UPDATE de Perfil de Empleados</t>
   </si>
   <si>
-    <t xml:space="preserve">Pruebas de ajustes en Sps</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajustes en formulario de Perfil de Empleados</t>
   </si>
   <si>
     <t xml:space="preserve">Integración de cambios y pruebas de Perfiles de Empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de ajustes en Sps (Tarea 4)</t>
   </si>
   <si>
     <t xml:space="preserve">Adecuaciones a 45 Stored Procedures involucrados en consulta a Perfil de Empleados</t>
@@ -128,11 +137,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,8 +164,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +229,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
         <bgColor rgb="FF999999"/>
       </patternFill>
@@ -258,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,6 +326,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,24 +346,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -347,7 +394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -408,7 +455,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -432,46 +479,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:BA27"/>
+  <dimension ref="B1:BC27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="9730" ySplit="0" topLeftCell="F1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8276" ySplit="0" topLeftCell="S1" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="72.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="15" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="22" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="29" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="37" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="43" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="50" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="54" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="24" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="39" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="45" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="52" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="56" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -516,82 +562,84 @@
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
       <c r="AU2" s="9"/>
       <c r="AV2" s="9"/>
       <c r="AW2" s="9"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -603,17 +651,17 @@
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
+      <c r="L3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -624,17 +672,17 @@
       <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>8</v>
+      <c r="S3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>9</v>
@@ -645,17 +693,17 @@
       <c r="W3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>8</v>
+      <c r="Z3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>9</v>
@@ -666,17 +714,17 @@
       <c r="AD3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>8</v>
+      <c r="AG3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>9</v>
@@ -687,17 +735,17 @@
       <c r="AK3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>8</v>
+      <c r="AN3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>9</v>
@@ -708,17 +756,17 @@
       <c r="AR3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AT3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>8</v>
+      <c r="AU3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>9</v>
@@ -729,805 +777,1325 @@
       <c r="AY3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="BB3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC3" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13" t="n">
         <v>43962</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="H4" s="13" t="n">
         <v>43963</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="I4" s="13" t="n">
         <v>43964</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="J4" s="13" t="n">
         <v>43965</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="K4" s="13" t="n">
         <v>43966</v>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="L4" s="14" t="n">
         <v>43967</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="M4" s="14" t="n">
         <v>43968</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="N4" s="13" t="n">
         <v>43969</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="O4" s="13" t="n">
         <v>43970</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="P4" s="13" t="n">
         <v>43971</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="Q4" s="13" t="n">
         <v>43972</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="R4" s="13" t="n">
         <v>43973</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="S4" s="14" t="n">
         <v>43974</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="T4" s="14" t="n">
         <v>43975</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="U4" s="13" t="n">
         <v>43976</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="V4" s="13" t="n">
         <v>43977</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="W4" s="13" t="n">
         <v>43978</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="X4" s="13" t="n">
         <v>43979</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="Y4" s="13" t="n">
         <v>43980</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="Z4" s="14" t="n">
         <v>43981</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="AA4" s="14" t="n">
         <v>43982</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="AB4" s="13" t="n">
         <v>43983</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AC4" s="13" t="n">
         <v>43984</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AD4" s="13" t="n">
         <v>43985</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AE4" s="13" t="n">
         <v>43986</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AF4" s="13" t="n">
         <v>43987</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AG4" s="14" t="n">
         <v>43988</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AH4" s="14" t="n">
         <v>43989</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AI4" s="13" t="n">
         <v>43990</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>43991</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AK4" s="13" t="n">
         <v>43992</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AL4" s="13" t="n">
         <v>43993</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AM4" s="13" t="n">
         <v>43994</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AN4" s="14" t="n">
         <v>43995</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AO4" s="14" t="n">
         <v>43996</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AP4" s="13" t="n">
         <v>43997</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>43998</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AR4" s="13" t="n">
         <v>43999</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AS4" s="13" t="n">
         <v>44000</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AT4" s="13" t="n">
         <v>44001</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AU4" s="14" t="n">
         <v>44002</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AV4" s="14" t="n">
         <v>44003</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AW4" s="13" t="n">
         <v>44004</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AX4" s="13" t="n">
         <v>44005</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AY4" s="13" t="n">
         <v>44006</v>
       </c>
-      <c r="AX4" s="12" t="n">
+      <c r="AZ4" s="13" t="n">
         <v>44007</v>
       </c>
-      <c r="AY4" s="12" t="n">
+      <c r="BA4" s="13" t="n">
         <v>44008</v>
       </c>
-      <c r="AZ4" s="13" t="n">
+      <c r="BB4" s="14" t="n">
         <v>44009</v>
       </c>
-      <c r="BA4" s="13" t="n">
+      <c r="BC4" s="14" t="n">
         <v>44010</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="17" t="n">
+        <v>43962</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>43963</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17" t="n">
+        <v>43963</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>43964</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="H7" s="14"/>
-      <c r="J7" s="19"/>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="17" t="n">
+        <v>43965</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>43965</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="19"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="19"/>
       <c r="AL7" s="19"/>
       <c r="AM7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17" t="n">
+        <v>43965</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>43966</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="19"/>
       <c r="AM8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="18"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="I9" s="14"/>
+      <c r="C9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17" t="n">
+        <v>43969</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>43971</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
       <c r="AM9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17" t="n">
+        <v>43971</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>43971</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17" t="n">
+        <v>43972</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>43972</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="N11" s="14"/>
-      <c r="Q11" s="19"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="R11" s="19"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17" t="n">
+        <v>43972</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>43977</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17" t="n">
+        <v>43977</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>43977</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="14"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17" t="n">
+        <v>43978</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>43984</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
       <c r="AM14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17" t="n">
+        <v>43984</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>43984</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
-      <c r="AA15" s="14"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="19"/>
       <c r="AL15" s="19"/>
       <c r="AM15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="18"/>
-      <c r="AV15" s="18"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17" t="n">
+        <v>43954</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>43954</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
-      <c r="AB16" s="14"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="24"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
       <c r="AM16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17" t="n">
+        <v>43986</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>43992</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17" t="n">
+        <v>44054</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <v>43994</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17" t="n">
+        <v>43993</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>43994</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="n">
+      <c r="B20" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17" t="n">
+        <v>43994</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>43997</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AK20" s="14"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="19"/>
       <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="14"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="C21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17" t="n">
+        <v>43998</v>
+      </c>
+      <c r="F21" s="17" t="n">
+        <v>43999</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
       <c r="AM21" s="19"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="23"/>
+      <c r="C27" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="AC2:AI2"/>
-    <mergeCell ref="AJ2:AP2"/>
+  <mergeCells count="9">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
